--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msaya\Desktop\MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E550BB-86B9-4B25-943F-C46C684C55F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAA5A9E-67A4-4021-8BC3-0826DEF32FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="180">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -192,9 +192,6 @@
     <t>RP1, RP2</t>
   </si>
   <si>
-    <t>PCG3A504C01R00</t>
-  </si>
-  <si>
     <t>SMD/SMT</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>D1, D8</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
     <t>Ferrite Bead</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
     <t>10n</t>
   </si>
   <si>
-    <t>120p</t>
-  </si>
-  <si>
     <t>SM/C_1812</t>
   </si>
   <si>
@@ -384,15 +375,9 @@
     <t>CT12, CT13, CT17, CT18</t>
   </si>
   <si>
-    <t>100n</t>
-  </si>
-  <si>
     <t>CT14, CT19</t>
   </si>
   <si>
-    <t>1u</t>
-  </si>
-  <si>
     <t>CT20, CT21</t>
   </si>
   <si>
@@ -405,36 +390,12 @@
     <t>CT40</t>
   </si>
   <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>LT1085-12</t>
-  </si>
-  <si>
-    <t>SOT_THT:TO-220-3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.de/ProductDetail/Analog-Devices/LT1085CT-12PBF?qs=ytflclh7QUUznQq9V7Fy2Q%3D%3D&amp;mgh=1&amp;vip=1&amp;utm_id=20968985688&amp;gad_source=1&amp;gclid=Cj0KCQjw28W2BhC7ARIsAPerrcI_UvH4yUQwx7TEPm1PCZrZCafRfj2j81keJfP718ngGC43_Ma8tL8aApduEALw_wcB</t>
-  </si>
-  <si>
     <t>Q1, Q4, Q6, Q7, Q8, QR1</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>https://www.mouser.de/ProductDetail/Omron-Electronics/G5RL-1A-E-HR-DC12?qs=dLWB%2FtR6aAawVME0ARoR4A%3D%3D&amp;mgh=1&amp;vip=1&amp;utm_id=20979042628&amp;gad_source=1&amp;gclid=Cj0KCQjw28W2BhC7ARIsAPerrcIEbhIZ2Ivdu3Zms_FaVTHSKCn_n-2l0jWjIF80CHSSqMkKkELanuUaAm1XEALw_wcB</t>
-  </si>
-  <si>
-    <t>G5RL-1A-E-HR-DC12</t>
-  </si>
-  <si>
-    <t>CU3</t>
-  </si>
-  <si>
-    <t>CU4</t>
-  </si>
-  <si>
     <t>https://www.mouser.de/ProductDetail/Wurth-Elektronik/74270115?qs=5twSNpOB8ICdjrXY2lZ6Mg%3D%3D&amp;srsltid=AfmBOoq0kVrMeEIg0NW3rgih30m0O09J3A8YgqoryvjwLmj732hU7PFc</t>
   </si>
   <si>
@@ -468,15 +429,6 @@
     <t>Schottky Diode</t>
   </si>
   <si>
-    <t>SMA</t>
-  </si>
-  <si>
-    <t>RR1</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
     <t>R24, R26</t>
   </si>
   <si>
@@ -490,6 +442,129 @@
   </si>
   <si>
     <t>https://www.digikey.de/de/products/filter/koaxialkabel-hf/475?s=N4IgjCBcpgbALFUBjKAzAhgGwM4FMAaEAeygG0QBmATlgFZKB2EAXSIAcAXKEAZU4BOASwB2AcxABfaUA</t>
+  </si>
+  <si>
+    <t>Vorhanden</t>
+  </si>
+  <si>
+    <t>G5RL-1A-E-HR-DC24</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Omron-Electronics/G5RL-1A-E-HR-DC24?qs=dLWB%2FtR6aAYjzNZDpNo%252BQw%3D%3D</t>
+  </si>
+  <si>
+    <t>2-3 m</t>
+  </si>
+  <si>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/onsemi-Fairchild/S2M?qs=a0wxjULRyoFPR8XEAEgF8g%3D%3D</t>
+  </si>
+  <si>
+    <t>RG-402</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Panasonic/ERJ-3EKF4701V?qs=MVjVSMjNRMouVvwnqrpO2w%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Panasonic/ERJ-3EKF4700V?qs=MVjVSMjNRMpQ3VsSe9R%252BEw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Panasonic/ERJ-3EKF1200V?qs=iBwFsHVUAOfkZ4Bj0qjBGg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Panasonic/ERJ-3EKF39R0V?qs=MVjVSMjNRMrPQ5sbEUWOOA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Panasonic/ERJ-3EKF2001V?qs=66DK8nO8gJB6oRfYYGuuZQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Panasonic/ERJ-3EKF1002V?qs=H7k1u0Mp9JSrGPQ5%2F5COuw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/RT0603DRE0725K2L?qs=bQfrgN9vNvwDpsvHYd6T0A%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/RT0603DRE071K35L?qs=bQfrgN9vNvxBhy5MLnTFmw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/AF0603FR-072R2L?qs=tggtontpCXPYp5lxWRUBGQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/RC1210FR-07220RL?qs=bz%2FLPVPAsTJDiDe0dEiWnQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/RC1210FR-0730RL?qs=bz%2FLPVPAsTKt%2FuXlfH%252By9g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/RC1210FR-07100RL?qs=H6bTqIa4pvXUYEtXBKuT6Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/RC1210FR-07120RL?qs=H6bTqIa4pvXFKAQXn0HwSg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/RC2512FK-072R2L?qs=GMd7ukQor4NniTQQgcp5QA%3D%3D</t>
+  </si>
+  <si>
+    <t>PVG3A504C01R00</t>
+  </si>
+  <si>
+    <t>SMD/SMT-PVG3A</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>12.5mm</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/CC0603JRNPO9BN100?qs=vTakOoo5QyIFwFOmdMrXhw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/CC0603JRNPO9BN472?qs=mzRxyRlhVdt1Dpz0dRJBKQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/CC0603JRNPO9BN102?qs=5q%252BqlK8CmJQpy%2F%252BA6LqOAg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/CC0603KRX7R9BB104?qs=vTakOoo5QyLvVCYM2ge8LQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/CC1210JKNPOCBN471?qs=7s%252B3O6pAiyDWdRwrSwOy1Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Vishay/GA1210Y471KBEAR31G?qs=uwxL4vQweFMphFwYkYFSRw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/YAGEO/CC1210KKX5R9BB106?qs=vD1oOtXSXtyTFw74GyUNMg%3D%3D</t>
+  </si>
+  <si>
+    <t>120p/3kW</t>
+  </si>
+  <si>
+    <t>10n/1kW</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Vishay-Vitramon/VJ1812Y103MXGTW1BC?qs=9qnzKDpA3VCGTbAdPIIpZA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Vishay-Vitramon/VJ1812A121KXGAT4X?qs=vnwGVgFuQibngR2KfGIO2g%3D%3D</t>
+  </si>
+  <si>
+    <t>100n/500V</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Vishay-Sprague/VJ1812Y104KXLAT4X?qs=8pwaB%2FoWVO0qwA%252BKaR5R%2Fg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/KYOCERA-AVX/1812VC105KAT2A?qs=%252BdQmOuGyFcHXq8CuawQPbg%3D%3D</t>
+  </si>
+  <si>
+    <t>1u/250V</t>
+  </si>
+  <si>
+    <t>THT</t>
   </si>
 </sst>
 </file>
@@ -830,950 +905,1025 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" customWidth="1"/>
-    <col min="5" max="5" width="192" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="192" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
       <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>74</v>
+      <c r="C7" s="1">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>146</v>
+      <c r="C8" s="1">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>87</v>
+      <c r="C9" s="1">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>85</v>
+      <c r="C10" s="1">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
         <v>104</v>
       </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
-        <v>51</v>
+      <c r="C15" s="1">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="2">
+        <v>74270115</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="1">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="2">
-        <v>74270115</v>
-      </c>
-      <c r="E18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="1">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="F30" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="1">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="1">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
       <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="F33" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="1">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="1">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="1">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="B43" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="E43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="1">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C48" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="1">
+      <c r="D48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="1">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="1">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="1">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="1">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="1">
         <v>2</v>
       </c>
-      <c r="C50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="1">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="1">
-        <v>28</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="1">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="1">
-        <v>34</v>
-      </c>
-      <c r="D63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" s="1">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="1">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" s="1">
-        <v>12</v>
-      </c>
-      <c r="C67" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="1">
-        <v>26</v>
-      </c>
-      <c r="D68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="1">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="1">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="1">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>119</v>
-      </c>
-      <c r="D72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="1">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="1">
-        <v>18</v>
-      </c>
-      <c r="D74" t="s">
-        <v>115</v>
+      <c r="F64" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E50" r:id="rId1" xr:uid="{A87347F4-8CC9-4578-A515-F9D01CD9419A}"/>
+    <hyperlink ref="F45" r:id="rId1" xr:uid="{A87347F4-8CC9-4578-A515-F9D01CD9419A}"/>
+    <hyperlink ref="F19" r:id="rId2" xr:uid="{53AB0B4B-CAAE-4E78-8D1C-DBC73F696F21}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{432BD068-3E04-426A-B807-B586B48DCBB3}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{DB8C9C1C-44DA-4F85-9886-80B39984503F}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{BBF45465-3709-40A9-8662-1F206076A329}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{4CBD342D-A64B-4A03-BFC2-D443EC81E7FC}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{199B824A-09A7-4292-9B1B-CE7C42E609F9}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{66084500-A715-45C0-B5AA-FE448D1C406E}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{BB0D844D-B988-4700-BDC3-97C073A13536}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{4EC49EFA-3E18-4C64-942F-B4887C89420C}"/>
+    <hyperlink ref="F10" r:id="rId11" xr:uid="{24F7D065-2E75-4CF3-AE81-2245A9C4F12E}"/>
+    <hyperlink ref="F11" r:id="rId12" display="https://www.digikey.de/de/products/detail/ampleon-usa-inc/568-10993-ND/4475922?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Shopping_Product_New%20Customer%20Acquisition&amp;utm_term=&amp;productid=4475922&amp;utm_content=&amp;utm_id=go_cmp-19928079281_adg-_ad-__dev-c_ext-_prd-4475922_sig-Cj0KCQjw28W2BhC7ARIsAPerrcLDAory6Wg-pVxe1gtBHIXzN0yTwvztYtn9vxJF3fSFH2ppw_qAoTYaAk00EALw_wcB&amp;gad_source=1&amp;gclid=Cj0KCQjw28W2BhC7ARIsAPerrcLDAory6Wg-pVxe1gtBHIXzN0yTwvztYtn9vxJF3fSFH2ppw_qAoTYaAk00EALw_wcB" xr:uid="{17EAB0E9-A5F7-4A8C-A0FC-B5B824197116}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{8A40F399-E60D-4882-B55D-1ABE51B9C378}"/>
+    <hyperlink ref="F9" r:id="rId14" xr:uid="{CFDB4B9B-F00A-4E18-8423-3D2022235B66}"/>
+    <hyperlink ref="F13" r:id="rId15" xr:uid="{3699D2EE-19D2-406E-8A41-4629F804B5FE}"/>
+    <hyperlink ref="F14" r:id="rId16" xr:uid="{14C1A87A-B50E-4140-AF3F-651F519CA039}"/>
+    <hyperlink ref="F15" r:id="rId17" xr:uid="{AE2CEB77-AB85-428D-9887-188CB6018B0B}"/>
+    <hyperlink ref="F17" r:id="rId18" xr:uid="{CE6DD7A6-E9B4-4D3F-9F60-04EEE2DFBCAB}"/>
+    <hyperlink ref="F22" r:id="rId19" xr:uid="{758D437F-7D82-4896-AAD8-E85E09B83BE1}"/>
+    <hyperlink ref="F25" r:id="rId20" xr:uid="{F2D5FB81-1B3B-4AEB-83A6-6EF4852EEF6E}"/>
+    <hyperlink ref="F27" r:id="rId21" xr:uid="{F2025EC8-01C7-4948-BD61-8D79BAEC779C}"/>
+    <hyperlink ref="F28" r:id="rId22" xr:uid="{1EED001A-8A86-4EA9-944D-95B8C4B59280}"/>
+    <hyperlink ref="F29" r:id="rId23" xr:uid="{69F94C80-1CA8-4837-81A3-E04B1F246B52}"/>
+    <hyperlink ref="F30" r:id="rId24" xr:uid="{8F5FD6F2-F91A-4383-BD5F-B31149D3BABA}"/>
+    <hyperlink ref="F31" r:id="rId25" xr:uid="{02C08D03-4F5D-4967-9773-825854E4F2F4}"/>
+    <hyperlink ref="F32" r:id="rId26" xr:uid="{91695E53-147E-4A1D-9835-EF9BA27BA1D4}"/>
+    <hyperlink ref="F33" r:id="rId27" xr:uid="{0A65CDEA-D21C-46EC-A0ED-F58E7A90069D}"/>
+    <hyperlink ref="F36" r:id="rId28" xr:uid="{75601EAA-BF52-42C3-B6AC-4FFEE7FA2DEC}"/>
+    <hyperlink ref="F37" r:id="rId29" xr:uid="{8E5086C3-7AE3-484F-AB95-2D987CD4F378}"/>
+    <hyperlink ref="F38" r:id="rId30" xr:uid="{C3995548-9EB2-4ECA-9756-780E0238F67F}"/>
+    <hyperlink ref="F39" r:id="rId31" xr:uid="{2FCB4245-1C6B-416C-9B26-B5FB4EDFF396}"/>
+    <hyperlink ref="F41" r:id="rId32" xr:uid="{A3E55EA9-6D2C-4FA7-A275-F0171E02AD41}"/>
+    <hyperlink ref="F43" r:id="rId33" xr:uid="{634CC272-A4F5-401C-84AE-DF2485A47F1A}"/>
+    <hyperlink ref="F48" r:id="rId34" xr:uid="{16651B18-8260-4CDF-A380-51D7CC6261EB}"/>
+    <hyperlink ref="F49" r:id="rId35" xr:uid="{FA29B3A0-3ED3-4474-9912-C1F215AA1786}"/>
+    <hyperlink ref="F51" r:id="rId36" xr:uid="{50078512-1694-4861-B0EC-EEDCACC33FD4}"/>
+    <hyperlink ref="F52" r:id="rId37" xr:uid="{93FF1B22-2A4A-4F9E-9ADB-CDC042A8FFF5}"/>
+    <hyperlink ref="F53" r:id="rId38" xr:uid="{72EA9EC8-3547-4E9A-883E-2835CEFE8296}"/>
+    <hyperlink ref="F54" r:id="rId39" xr:uid="{36BABD19-6FBE-43B6-81DD-C7B10BACFFE3}"/>
+    <hyperlink ref="F57" r:id="rId40" xr:uid="{F16A6270-595F-4109-A26A-70834479CBC5}"/>
+    <hyperlink ref="F58" r:id="rId41" xr:uid="{D1BC1DDE-E170-4B8E-8D16-FD7E5E07056D}"/>
+    <hyperlink ref="F59" r:id="rId42" xr:uid="{00702EA2-9A11-4FE4-93B0-D00B7B86D03F}"/>
+    <hyperlink ref="F62" r:id="rId43" xr:uid="{5861A700-7B97-4741-A0AA-905C9FEEC9CD}"/>
+    <hyperlink ref="F61" r:id="rId44" xr:uid="{794ED8E7-E301-4242-825E-C93A9DA826BE}"/>
+    <hyperlink ref="F63" r:id="rId45" xr:uid="{65F00D3A-0187-488E-A765-2124A05B6456}"/>
+    <hyperlink ref="F64" r:id="rId46" xr:uid="{BE2D641A-7AA2-4E41-B635-AA4B89D0B90D}"/>
+    <hyperlink ref="F35" r:id="rId47" xr:uid="{2B67DA51-FE54-442F-9A5C-0FFAE0977707}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>